--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CA7248-ED19-443A-AD6D-6D75294B1FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara8122/Library/Mobile Documents/com~apple~CloudDocs/School/Software Engineering/eclipse-workspace/ClueGame/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2093EAE-536B-A94B-A3DE-ACF3604CD56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="28560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="38">
   <si>
     <t>X</t>
   </si>
@@ -82,9 +86,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>MM</t>
   </si>
   <si>
     <t>J</t>
@@ -154,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +207,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2AFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -219,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -227,12 +246,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2AFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -544,15 +571,15 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="31" width="3.7109375" customWidth="1"/>
+    <col min="2" max="31" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -644,7 +671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -739,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -773,7 +800,7 @@
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -827,14 +854,14 @@
       <c r="AC3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -929,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1024,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1040,7 +1067,7 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1061,7 +1088,7 @@
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1119,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1174,7 +1201,7 @@
       <c r="R7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="T7" s="4" t="s">
@@ -1214,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1309,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1331,7 +1358,7 @@
       <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1404,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1457,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>16</v>
@@ -1475,22 +1502,22 @@
         <v>1</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>1</v>
@@ -1499,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1510,16 +1537,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>1</v>
@@ -1552,13 +1579,13 @@
         <v>16</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>16</v>
@@ -1570,22 +1597,22 @@
         <v>1</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>1</v>
@@ -1594,27 +1621,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>1</v>
@@ -1647,10 +1674,10 @@
         <v>16</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>16</v>
@@ -1665,22 +1692,22 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>1</v>
@@ -1689,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1700,16 +1727,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>1</v>
@@ -1742,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>16</v>
@@ -1760,22 +1787,22 @@
         <v>1</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>1</v>
@@ -1784,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1795,16 +1822,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>1</v>
@@ -1852,25 +1879,25 @@
         <v>1</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>1</v>
@@ -1879,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1890,16 +1917,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>1</v>
@@ -1950,22 +1977,22 @@
         <v>1</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>1</v>
@@ -1974,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2006,28 +2033,28 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>1</v>
@@ -2069,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2098,64 +2125,64 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>1</v>
@@ -2164,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2172,212 +2199,212 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="1" t="s">
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>1</v>
@@ -2449,14 +2476,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara8122/Library/Mobile Documents/com~apple~CloudDocs/School/Software Engineering/eclipse-workspace/ClueGame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2093EAE-536B-A94B-A3DE-ACF3604CD56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643587FA-E432-6E47-8DA3-09655CABDA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="100" windowWidth="28560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="45">
   <si>
     <t>X</t>
   </si>
@@ -149,13 +149,34 @@
   </si>
   <si>
     <t>P*</t>
+  </si>
+  <si>
+    <t>Door Direction Tests</t>
+  </si>
+  <si>
+    <t>W&lt;</t>
+  </si>
+  <si>
+    <t>Room Adjacencies</t>
+  </si>
+  <si>
+    <t>Door Adjacencies</t>
+  </si>
+  <si>
+    <t>Walkway Adjacencies</t>
+  </si>
+  <si>
+    <t>Test Targets</t>
+  </si>
+  <si>
+    <t>Test Occupied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +184,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +252,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC18FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -249,6 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +306,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFF1"/>
+      <color rgb="FFC18FFF"/>
       <color rgb="FFFF2AFF"/>
     </mruColors>
   </colors>
@@ -568,18 +619,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="31" width="3.6640625" customWidth="1"/>
+    <col min="33" max="33" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -671,7 +723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -720,7 +772,7 @@
       <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -766,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -860,8 +912,11 @@
       <c r="AE3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="AG3" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -955,8 +1010,11 @@
       <c r="AE4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AG4" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1050,8 +1108,11 @@
       <c r="AE5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AG5" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1145,8 +1206,11 @@
       <c r="AE6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AG6" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1204,7 +1268,7 @@
       <c r="S7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1240,8 +1304,11 @@
       <c r="AE7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AG7" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1335,8 +1402,11 @@
       <c r="AE8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AG8" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1379,7 +1449,7 @@
       <c r="N9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="13" t="s">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1431,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1526,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1621,14 +1691,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1655,7 +1725,7 @@
       <c r="K12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1676,7 +1746,7 @@
       <c r="R12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -1716,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1780,8 +1850,8 @@
       <c r="U13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>1</v>
+      <c r="V13" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>1</v>
@@ -1811,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1827,7 +1897,7 @@
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1878,7 +1948,7 @@
       <c r="V14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="X14" s="2" t="s">
@@ -1906,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2001,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2053,7 +2123,7 @@
       <c r="Q16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -2124,7 +2194,7 @@
       <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2270,7 +2340,7 @@
       <c r="Z18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="11" t="s">
         <v>33</v>
       </c>
       <c r="AB18" s="2" t="s">

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara8122/Library/Mobile Documents/com~apple~CloudDocs/School/Software Engineering/eclipse-workspace/ClueGame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643587FA-E432-6E47-8DA3-09655CABDA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41677F3-FD0C-0944-B8BE-E120A7CD50C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="100" windowWidth="28560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,8 +306,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFC18FFF"/>
       <color rgb="FF00FFF1"/>
-      <color rgb="FFC18FFF"/>
       <color rgb="FFFF2AFF"/>
     </mruColors>
   </colors>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1387,7 @@
       <c r="Z8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="AB8" s="1" t="s">
@@ -1491,7 +1491,7 @@
       <c r="AB9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AD9" s="1" t="s">
@@ -2464,7 +2464,7 @@
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara8122/Library/Mobile Documents/com~apple~CloudDocs/School/Software Engineering/eclipse-workspace/ClueGame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41677F3-FD0C-0944-B8BE-E120A7CD50C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C24C84-DB9C-0E42-B1A9-86D9B74714B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="100" windowWidth="28560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2AFF"/>
       <color rgb="FFC18FFF"/>
       <color rgb="FF00FFF1"/>
-      <color rgb="FFFF2AFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -790,7 +790,7 @@
       <c r="V2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -1301,7 +1301,7 @@
       <c r="AD7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AG7" s="13" t="s">
@@ -1725,7 +1725,7 @@
       <c r="K12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1740,7 +1740,7 @@
       <c r="P12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -2340,7 +2340,7 @@
       <c r="Z18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AA18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AB18" s="2" t="s">
@@ -2580,7 +2580,7 @@
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara8122/Library/Mobile Documents/com~apple~CloudDocs/School/Software Engineering/eclipse-workspace/ClueGame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70A392-51D5-6A49-8182-B85F51B62B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C66891-A77B-114C-A5C1-DC8DF7BE706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="1640" windowWidth="28560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -926,8 +926,8 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -989,8 +989,8 @@
       <c r="X4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>5</v>
+      <c r="Y4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>5</v>
@@ -1027,8 +1027,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -1087,8 +1087,8 @@
       <c r="X5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>9</v>
+      <c r="Y5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>5</v>
@@ -2236,14 +2236,14 @@
       <c r="W17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>29</v>
+      <c r="X17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z17" s="6" t="s">
-        <v>30</v>
+      <c r="Z17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>29</v>
